--- a/Flags_Temp.xlsx
+++ b/Flags_Temp.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="17">
   <si>
     <t>Temp</t>
   </si>
@@ -43,31 +43,28 @@
     <t>Não disponível</t>
   </si>
   <si>
-    <t>20.0</t>
+    <t>0.0</t>
   </si>
   <si>
     <t>Não testado</t>
   </si>
   <si>
-    <t>0.0</t>
-  </si>
-  <si>
     <t>Anômalo</t>
   </si>
   <si>
     <t>Suspeito</t>
   </si>
   <si>
-    <t>1660.0</t>
+    <t>75.0</t>
   </si>
   <si>
     <t>Bom</t>
   </si>
   <si>
-    <t>43180.0</t>
-  </si>
-  <si>
-    <t>41520.0</t>
+    <t>43200.0</t>
+  </si>
+  <si>
+    <t>43125.0</t>
   </si>
 </sst>
 </file>
@@ -416,13 +413,13 @@
         <v>10</v>
       </c>
       <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" t="s">
-        <v>13</v>
-      </c>
       <c r="F1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -433,16 +430,16 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -453,16 +450,16 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -473,16 +470,16 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -493,16 +490,16 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -513,16 +510,16 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -533,16 +530,16 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -553,16 +550,16 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
